--- a/kids bestsellers2.xlsx
+++ b/kids bestsellers2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joyce\Desktop\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3314E6B1-628B-47B9-9F22-1A05EB70E739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FB2541-A798-4201-AD31-AC0028B83F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE318C53-0FEA-442B-B0B6-CE6E00BE3408}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$102</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="233">
   <si>
     <t>sscat</t>
   </si>
@@ -223,30 +223,6 @@
   </si>
   <si>
     <t>Quantity sold - 221 / ASP - Rs 356</t>
-  </si>
-  <si>
-    <t>https://s3-ap-southeast-1.amazonaws.com/meesho-supply-v2/images/products/2715966/1_512.jpg</t>
-  </si>
-  <si>
-    <t>Quantity sold - 297 / ASP - Rs 513</t>
-  </si>
-  <si>
-    <t>https://s3-ap-southeast-1.amazonaws.com/meesho-supply-v2/images/products/2715973/1_512.jpg</t>
-  </si>
-  <si>
-    <t>Quantity sold - 295 / ASP - Rs 513</t>
-  </si>
-  <si>
-    <t>https://s3-ap-southeast-1.amazonaws.com/meesho-supply-v2/images/products/2715979/1_512.jpg</t>
-  </si>
-  <si>
-    <t>Quantity sold - 244 / ASP - Rs 513</t>
-  </si>
-  <si>
-    <t>https://s3-ap-southeast-1.amazonaws.com/meesho-supply-v2/images/products/2716506/1_512.jpg</t>
-  </si>
-  <si>
-    <t>Quantity sold - 471 / ASP - Rs 513</t>
   </si>
   <si>
     <t>Leggings &amp; Tights</t>
@@ -1104,11 +1080,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0992969A-D1F8-48B1-BE8F-0FD500932592}">
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1118,7 +1092,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1148,24 +1122,24 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="N1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C2">
         <v>1142</v>
@@ -1192,13 +1166,13 @@
         <v>229</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L2">
         <v>1.4433010905659999E-3</v>
       </c>
       <c r="M2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="N2">
         <v>35596</v>
@@ -1206,10 +1180,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C3">
         <v>1142</v>
@@ -1236,13 +1210,13 @@
         <v>229</v>
       </c>
       <c r="K3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L3">
         <v>1.4433010905659999E-3</v>
       </c>
       <c r="M3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="N3">
         <v>35596</v>
@@ -1250,10 +1224,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C4">
         <v>1184</v>
@@ -1280,13 +1254,13 @@
         <v>274</v>
       </c>
       <c r="K4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L4">
         <v>1.2201475780960001E-3</v>
       </c>
       <c r="M4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="N4">
         <v>34127</v>
@@ -1294,7 +1268,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -1324,13 +1298,13 @@
         <v>279</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L5">
         <v>1.33151658053E-3</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="N5">
         <v>21442</v>
@@ -1338,315 +1312,315 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>1137</v>
+        <v>1187</v>
       </c>
       <c r="D6">
-        <v>368079</v>
+        <v>756689</v>
       </c>
       <c r="E6" s="2">
-        <v>43672.739652777775</v>
+        <v>43858.622094907405</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2716506</v>
+        <v>5127186</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J6">
-        <v>513</v>
+        <v>169</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="L6">
-        <v>1.2614821800250001E-3</v>
+        <v>1.6183577927239999E-3</v>
       </c>
       <c r="M6" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="N6">
-        <v>20445</v>
+        <v>25856</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="C7">
-        <v>1187</v>
+        <v>1172</v>
       </c>
       <c r="D7">
-        <v>756689</v>
+        <v>761920</v>
       </c>
       <c r="E7" s="2">
-        <v>43858.622094907405</v>
+        <v>43860.418807870374</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5127186</v>
+        <v>5157427</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="J7">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L7">
-        <v>1.6183577927239999E-3</v>
+        <v>1.289436255698E-3</v>
       </c>
       <c r="M7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N7">
-        <v>25856</v>
+        <v>33636</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C8">
-        <v>1172</v>
+        <v>1184</v>
       </c>
       <c r="D8">
-        <v>761920</v>
+        <v>774247</v>
       </c>
       <c r="E8" s="2">
-        <v>43860.418807870374</v>
+        <v>43864.513182870367</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5157427</v>
+        <v>5228229</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="J8">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="K8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L8">
-        <v>1.289436255698E-3</v>
+        <v>1.2201475780960001E-3</v>
       </c>
       <c r="M8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N8">
-        <v>33636</v>
+        <v>34127</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>1147</v>
+      </c>
+      <c r="D9">
+        <v>778434</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43865.673159722224</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5251929</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>416</v>
+      </c>
+      <c r="J9">
+        <v>324</v>
+      </c>
+      <c r="K9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9">
+        <v>1.0629711604059999E-3</v>
+      </c>
+      <c r="M9" t="s">
         <v>160</v>
       </c>
-      <c r="C9">
-        <v>1184</v>
-      </c>
-      <c r="D9">
-        <v>774247</v>
-      </c>
-      <c r="E9" s="2">
-        <v>43864.513182870367</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5228229</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>418</v>
-      </c>
-      <c r="J9">
-        <v>274</v>
-      </c>
-      <c r="K9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L9">
-        <v>1.2201475780960001E-3</v>
-      </c>
-      <c r="M9" t="s">
-        <v>164</v>
-      </c>
       <c r="N9">
-        <v>34127</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C10">
-        <v>1147</v>
+        <v>1186</v>
       </c>
       <c r="D10">
-        <v>778434</v>
+        <v>601042</v>
       </c>
       <c r="E10" s="2">
-        <v>43865.673159722224</v>
+        <v>43798.693993055553</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>5251929</v>
+        <v>4207591</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="J10">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="K10" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="L10">
-        <v>1.0629711604059999E-3</v>
+        <v>1.674609679345E-3</v>
       </c>
       <c r="M10" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="N10">
-        <v>6687</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="C11">
-        <v>1186</v>
+        <v>1142</v>
       </c>
       <c r="D11">
-        <v>601042</v>
+        <v>845313</v>
       </c>
       <c r="E11" s="2">
-        <v>43798.693993055553</v>
+        <v>43887.65011574074</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>4207591</v>
+        <v>5642659</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J11">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="L11">
-        <v>1.674609679345E-3</v>
+        <v>1.4433010905659999E-3</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="N11">
-        <v>21442</v>
+        <v>35596</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>1142</v>
+        <v>1173</v>
       </c>
       <c r="D12">
-        <v>845313</v>
+        <v>146150</v>
       </c>
       <c r="E12" s="2">
-        <v>43887.65011574074</v>
+        <v>43509.993425925924</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5642659</v>
+        <v>1171027</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="J12">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="K12" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="L12">
-        <v>1.4433010905659999E-3</v>
+        <v>9.4413643849299998E-4</v>
       </c>
       <c r="M12" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="N12">
-        <v>35596</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -1655,34 +1629,34 @@
         <v>1173</v>
       </c>
       <c r="D13">
-        <v>146150</v>
+        <v>146058</v>
       </c>
       <c r="E13" s="2">
-        <v>43509.993425925924</v>
+        <v>43509.879953703705</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1171027</v>
+        <v>1170387</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="J13">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L13">
-        <v>9.4413643849299998E-4</v>
+        <v>8.5189409032800003E-4</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>9157</v>
@@ -1690,7 +1664,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -1699,16 +1673,16 @@
         <v>1173</v>
       </c>
       <c r="D14">
-        <v>146058</v>
+        <v>420213</v>
       </c>
       <c r="E14" s="2">
-        <v>43509.879953703705</v>
+        <v>43705.492638888885</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1170387</v>
+        <v>3069777</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1717,500 +1691,500 @@
         <v>341</v>
       </c>
       <c r="J14">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="L14">
-        <v>8.5189409032800003E-4</v>
+        <v>1.3384176883320001E-3</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="N14">
-        <v>9157</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C15">
-        <v>1173</v>
+        <v>1184</v>
       </c>
       <c r="D15">
-        <v>420213</v>
+        <v>774247</v>
       </c>
       <c r="E15" s="2">
-        <v>43705.492638888885</v>
+        <v>43864.513182870367</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3069777</v>
+        <v>5228230</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="J15">
-        <v>356</v>
+        <v>274</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="L15">
-        <v>1.3384176883320001E-3</v>
+        <v>1.2201475780960001E-3</v>
       </c>
       <c r="M15" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="N15">
-        <v>21442</v>
+        <v>34127</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="C16">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="D16">
-        <v>774247</v>
+        <v>601042</v>
       </c>
       <c r="E16" s="2">
-        <v>43864.513182870367</v>
+        <v>43798.693993055553</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>5228230</v>
+        <v>4207596</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="J16">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="L16">
-        <v>1.2201475780960001E-3</v>
+        <v>1.674609679345E-3</v>
       </c>
       <c r="M16" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="N16">
-        <v>34127</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>1186</v>
+        <v>1141</v>
       </c>
       <c r="D17">
-        <v>601042</v>
+        <v>877892</v>
       </c>
       <c r="E17" s="2">
-        <v>43798.693993055553</v>
+        <v>43898.442719907405</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4207596</v>
+        <v>5824265</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J17">
-        <v>311</v>
+        <v>412</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="L17">
-        <v>1.674609679345E-3</v>
+        <v>1.781113956216E-3</v>
       </c>
       <c r="M17" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="N17">
-        <v>21442</v>
+        <v>27062</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>1137</v>
+        <v>1158</v>
       </c>
       <c r="D18">
-        <v>368000</v>
+        <v>115843</v>
       </c>
       <c r="E18" s="2">
-        <v>43672.724374999998</v>
+        <v>43480.632719907408</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>2715966</v>
+        <v>977784</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="J18">
-        <v>513</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="L18">
-        <v>1.3305574391130001E-3</v>
+        <v>1.0008022847309999E-3</v>
       </c>
       <c r="M18" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="N18">
-        <v>20445</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>1141</v>
+        <v>1187</v>
       </c>
       <c r="D19">
-        <v>877892</v>
+        <v>297090</v>
       </c>
       <c r="E19" s="2">
-        <v>43898.442719907405</v>
+        <v>43626.66510416667</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>5824265</v>
+        <v>2233788</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="J19">
-        <v>412</v>
+        <v>238</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="L19">
-        <v>1.781113956216E-3</v>
+        <v>2.105602190148E-3</v>
       </c>
       <c r="M19" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="N19">
-        <v>27062</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C20">
-        <v>1137</v>
+        <v>1186</v>
       </c>
       <c r="D20">
-        <v>368000</v>
+        <v>601042</v>
       </c>
       <c r="E20" s="2">
-        <v>43672.724374999998</v>
+        <v>43798.693993055553</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>2715973</v>
+        <v>4207592</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="J20">
-        <v>513</v>
+        <v>312</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="L20">
-        <v>1.3305574391130001E-3</v>
+        <v>1.674609679345E-3</v>
       </c>
       <c r="M20" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="N20">
-        <v>20445</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="C21">
-        <v>1158</v>
+        <v>1142</v>
       </c>
       <c r="D21">
-        <v>115843</v>
+        <v>845313</v>
       </c>
       <c r="E21" s="2">
-        <v>43480.632719907408</v>
+        <v>43887.65011574074</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>977784</v>
+        <v>5642667</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="J21">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="L21">
-        <v>1.0008022847309999E-3</v>
+        <v>1.4433010905659999E-3</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="N21">
-        <v>6165</v>
+        <v>35596</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C22">
-        <v>1187</v>
+        <v>1144</v>
       </c>
       <c r="D22">
-        <v>297090</v>
+        <v>466713</v>
       </c>
       <c r="E22" s="2">
-        <v>43626.66510416667</v>
+        <v>43728.553900462961</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>2233788</v>
+        <v>3367215</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J22">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="L22">
-        <v>2.105602190148E-3</v>
+        <v>1.315778096113E-3</v>
       </c>
       <c r="M22" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="N22">
-        <v>2597</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>1186</v>
+        <v>1152</v>
       </c>
       <c r="D23">
-        <v>601042</v>
+        <v>824809</v>
       </c>
       <c r="E23" s="2">
-        <v>43798.693993055553</v>
+        <v>43880.60087962963</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>4207592</v>
+        <v>5522243</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J23">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="L23">
-        <v>1.674609679345E-3</v>
+        <v>1.1360293744729999E-3</v>
       </c>
       <c r="M23" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="N23">
-        <v>21442</v>
+        <v>30425</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="D24">
-        <v>845313</v>
+        <v>891894</v>
       </c>
       <c r="E24" s="2">
-        <v>43887.65011574074</v>
+        <v>43903.567280092589</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>5642667</v>
+        <v>5903738</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="J24">
-        <v>229</v>
+        <v>382</v>
       </c>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="L24">
-        <v>1.4433010905659999E-3</v>
+        <v>1.7848182108479999E-3</v>
       </c>
       <c r="M24" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="N24">
-        <v>35596</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>1144</v>
+        <v>1173</v>
       </c>
       <c r="D25">
-        <v>466713</v>
+        <v>420213</v>
       </c>
       <c r="E25" s="2">
-        <v>43728.553900462961</v>
+        <v>43705.492638888885</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3367215</v>
+        <v>3069788</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J25">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K25" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="L25">
-        <v>1.315778096113E-3</v>
+        <v>1.3384176883320001E-3</v>
       </c>
       <c r="M25" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="N25">
         <v>21442</v>
@@ -2218,271 +2192,271 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="D26">
-        <v>824809</v>
+        <v>761977</v>
       </c>
       <c r="E26" s="2">
-        <v>43880.60087962963</v>
+        <v>43860.428541666668</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>5522243</v>
+        <v>5157728</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="J26">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="L26">
-        <v>1.1360293744729999E-3</v>
+        <v>9.0810452186199998E-4</v>
       </c>
       <c r="M26" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="N26">
-        <v>30425</v>
+        <v>33636</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C27">
-        <v>1137</v>
+        <v>1187</v>
       </c>
       <c r="D27">
-        <v>891894</v>
+        <v>228732</v>
       </c>
       <c r="E27" s="2">
-        <v>43903.567280092589</v>
+        <v>43573.503564814811</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>5903738</v>
+        <v>1745575</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="J27">
-        <v>382</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="L27">
-        <v>1.7848182108479999E-3</v>
+        <v>3.085498158654E-3</v>
       </c>
       <c r="M27" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="N27">
-        <v>3340</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C28">
-        <v>1173</v>
+        <v>1147</v>
       </c>
       <c r="D28">
-        <v>420213</v>
+        <v>616009</v>
       </c>
       <c r="E28" s="2">
-        <v>43705.492638888885</v>
+        <v>43805.449317129627</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3069788</v>
+        <v>4297429</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="J28">
-        <v>295</v>
+        <v>440</v>
       </c>
       <c r="K28" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="L28">
-        <v>1.3384176883320001E-3</v>
+        <v>1.2331680240039999E-3</v>
       </c>
       <c r="M28" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="N28">
-        <v>21442</v>
+        <v>17462</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>1141</v>
+        <v>1152</v>
       </c>
       <c r="D29">
-        <v>761977</v>
+        <v>55387</v>
       </c>
       <c r="E29" s="2">
-        <v>43860.428541666668</v>
+        <v>43353.714062500003</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>5157728</v>
+        <v>502957</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="J29">
-        <v>212</v>
+        <v>399</v>
       </c>
       <c r="K29" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="L29">
-        <v>9.0810452186199998E-4</v>
+        <v>9.5508160262599998E-4</v>
       </c>
       <c r="M29" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="N29">
-        <v>33636</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C30">
-        <v>1187</v>
+        <v>1157</v>
       </c>
       <c r="D30">
-        <v>228732</v>
+        <v>387361</v>
       </c>
       <c r="E30" s="2">
-        <v>43573.503564814811</v>
+        <v>43686.448865740742</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1745575</v>
+        <v>2852302</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="J30">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L30">
-        <v>3.085498158654E-3</v>
+        <v>1.0236020270380001E-3</v>
       </c>
       <c r="M30" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="N30">
-        <v>6687</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="C31">
-        <v>1147</v>
+        <v>1172</v>
       </c>
       <c r="D31">
-        <v>616009</v>
+        <v>761920</v>
       </c>
       <c r="E31" s="2">
-        <v>43805.449317129627</v>
+        <v>43860.418807870374</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4297429</v>
+        <v>5157428</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J31">
-        <v>440</v>
+        <v>172</v>
       </c>
       <c r="K31" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="L31">
-        <v>1.2331680240039999E-3</v>
+        <v>1.289436255698E-3</v>
       </c>
       <c r="M31" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="N31">
-        <v>17462</v>
+        <v>33636</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -2500,25 +2474,25 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>502957</v>
+        <v>502960</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J32">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L32">
         <v>9.5508160262599998E-4</v>
       </c>
       <c r="M32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N32">
         <v>2433</v>
@@ -2526,659 +2500,659 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C33">
-        <v>1157</v>
+        <v>1182</v>
       </c>
       <c r="D33">
-        <v>387361</v>
+        <v>616563</v>
       </c>
       <c r="E33" s="2">
-        <v>43686.448865740742</v>
+        <v>43805.517453703702</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2852302</v>
+        <v>4300892</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J33">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="K33" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L33">
-        <v>1.0236020270380001E-3</v>
+        <v>1.52573011161E-3</v>
       </c>
       <c r="M33" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="N33">
-        <v>6165</v>
+        <v>30004</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="C34">
-        <v>1172</v>
+        <v>1139</v>
       </c>
       <c r="D34">
-        <v>761920</v>
+        <v>410898</v>
       </c>
       <c r="E34" s="2">
-        <v>43860.418807870374</v>
+        <v>43699.745613425926</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5157428</v>
+        <v>3008376</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J34">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="L34">
-        <v>1.289436255698E-3</v>
+        <v>4.5707901118500002E-4</v>
       </c>
       <c r="M34" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="N34">
-        <v>33636</v>
+        <v>22301</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="D35">
-        <v>368000</v>
+        <v>645716</v>
       </c>
       <c r="E35" s="2">
-        <v>43672.724374999998</v>
+        <v>43816.650648148148</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>2715979</v>
+        <v>4474498</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J35">
-        <v>513</v>
+        <v>413</v>
       </c>
       <c r="K35" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="L35">
-        <v>1.3305574391130001E-3</v>
+        <v>1.3781236806249999E-3</v>
       </c>
       <c r="M35" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="N35">
-        <v>20445</v>
+        <v>12898</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="D36">
-        <v>55387</v>
+        <v>181427</v>
       </c>
       <c r="E36" s="2">
-        <v>43353.714062500003</v>
+        <v>43533.67355324074</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>502960</v>
+        <v>1400988</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="J36">
-        <v>396</v>
+        <v>161</v>
       </c>
       <c r="K36" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L36">
-        <v>9.5508160262599998E-4</v>
+        <v>1.181300618731E-3</v>
       </c>
       <c r="M36" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="N36">
-        <v>2433</v>
+        <v>11260</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C37">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="D37">
-        <v>616563</v>
+        <v>326319</v>
       </c>
       <c r="E37" s="2">
-        <v>43805.517453703702</v>
+        <v>43647.509398148148</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4300892</v>
+        <v>2435090</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="J37">
-        <v>273</v>
+        <v>356</v>
       </c>
       <c r="K37" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="L37">
-        <v>1.52573011161E-3</v>
+        <v>1.2648444679689999E-3</v>
       </c>
       <c r="M37" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="N37">
-        <v>30004</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C38">
-        <v>1139</v>
+        <v>1186</v>
       </c>
       <c r="D38">
-        <v>410898</v>
+        <v>601042</v>
       </c>
       <c r="E38" s="2">
-        <v>43699.745613425926</v>
+        <v>43798.693993055553</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>3008376</v>
+        <v>4207594</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="J38">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="K38" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="L38">
-        <v>4.5707901118500002E-4</v>
+        <v>1.674609679345E-3</v>
       </c>
       <c r="M38" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="N38">
-        <v>22301</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C39">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="D39">
-        <v>645716</v>
+        <v>616009</v>
       </c>
       <c r="E39" s="2">
-        <v>43816.650648148148</v>
+        <v>43805.449317129627</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>4474498</v>
+        <v>4297430</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="J39">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="K39" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="L39">
-        <v>1.3781236806249999E-3</v>
+        <v>1.2331680240039999E-3</v>
       </c>
       <c r="M39" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="N39">
-        <v>12898</v>
+        <v>17462</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="C40">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D40">
-        <v>181427</v>
+        <v>845313</v>
       </c>
       <c r="E40" s="2">
-        <v>43533.67355324074</v>
+        <v>43887.65011574074</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>1400988</v>
+        <v>5642664</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="J40">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="K40" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="L40">
-        <v>1.181300618731E-3</v>
+        <v>1.4433010905659999E-3</v>
       </c>
       <c r="M40" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="N40">
-        <v>11260</v>
+        <v>35596</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>1173</v>
+        <v>1141</v>
       </c>
       <c r="D41">
-        <v>326319</v>
+        <v>629235</v>
       </c>
       <c r="E41" s="2">
-        <v>43647.509398148148</v>
+        <v>43810.552175925928</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>2435090</v>
+        <v>4378940</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="J41">
-        <v>356</v>
+        <v>229</v>
       </c>
       <c r="K41" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="L41">
-        <v>1.2648444679689999E-3</v>
+        <v>6.3675864086899998E-4</v>
       </c>
       <c r="M41" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="N41">
-        <v>9065</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="C42">
-        <v>1186</v>
+        <v>1141</v>
       </c>
       <c r="D42">
-        <v>601042</v>
+        <v>906142</v>
       </c>
       <c r="E42" s="2">
-        <v>43798.693993055553</v>
+        <v>43907.667187500003</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>4207594</v>
+        <v>5983333</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="J42">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K42" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="L42">
-        <v>1.674609679345E-3</v>
+        <v>1.1909369696599999E-3</v>
       </c>
       <c r="M42" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="N42">
-        <v>21442</v>
+        <v>11007</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C43">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="D43">
-        <v>616009</v>
+        <v>943316</v>
       </c>
       <c r="E43" s="2">
-        <v>43805.449317129627</v>
+        <v>43927.70103009259</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>4297430</v>
+        <v>6180523</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J43">
-        <v>441</v>
+        <v>242</v>
       </c>
       <c r="K43" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="L43">
-        <v>1.2331680240039999E-3</v>
+        <v>1.506338140102E-3</v>
       </c>
       <c r="M43" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="N43">
-        <v>17462</v>
+        <v>27062</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="C44">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D44">
-        <v>845313</v>
+        <v>110483</v>
       </c>
       <c r="E44" s="2">
-        <v>43887.65011574074</v>
+        <v>43470.434849537036</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>5642664</v>
+        <v>937510</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J44">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K44" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="L44">
-        <v>1.4433010905659999E-3</v>
+        <v>8.5541840023500002E-4</v>
       </c>
       <c r="M44" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="N44">
-        <v>35596</v>
+        <v>7783</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C45">
-        <v>1141</v>
+        <v>1182</v>
       </c>
       <c r="D45">
-        <v>629235</v>
+        <v>616563</v>
       </c>
       <c r="E45" s="2">
-        <v>43810.552175925928</v>
+        <v>43805.517453703702</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>4378940</v>
+        <v>4300990</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J45">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="K45" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="L45">
-        <v>6.3675864086899998E-4</v>
+        <v>1.52573011161E-3</v>
       </c>
       <c r="M45" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="N45">
-        <v>2845</v>
+        <v>30004</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C46">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="D46">
-        <v>906142</v>
+        <v>675159</v>
       </c>
       <c r="E46" s="2">
-        <v>43907.667187500003</v>
+        <v>43826.706493055557</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>5983333</v>
+        <v>4653631</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J46">
-        <v>325</v>
+        <v>229</v>
       </c>
       <c r="K46" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="L46">
-        <v>1.1909369696599999E-3</v>
+        <v>1.8440349221509999E-3</v>
       </c>
       <c r="M46" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="N46">
-        <v>11007</v>
+        <v>27062</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C47">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="D47">
-        <v>943316</v>
+        <v>675159</v>
       </c>
       <c r="E47" s="2">
-        <v>43927.70103009259</v>
+        <v>43826.706493055557</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>6180523</v>
+        <v>4653630</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="J47">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="K47" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="L47">
-        <v>1.506338140102E-3</v>
+        <v>1.8440349221509999E-3</v>
       </c>
       <c r="M47" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="N47">
         <v>27062</v>
@@ -3186,7 +3160,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -3204,25 +3178,25 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>937510</v>
+        <v>937512</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="J48">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L48">
         <v>8.5541840023500002E-4</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>7783</v>
@@ -3230,87 +3204,87 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C49">
-        <v>1182</v>
+        <v>1187</v>
       </c>
       <c r="D49">
-        <v>616563</v>
+        <v>216491</v>
       </c>
       <c r="E49" s="2">
-        <v>43805.517453703702</v>
+        <v>43564.584479166668</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49">
-        <v>4300990</v>
+        <v>1661049</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="J49">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="K49" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="L49">
-        <v>1.52573011161E-3</v>
+        <v>1.1037527593810001E-3</v>
       </c>
       <c r="M49" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="N49">
-        <v>30004</v>
+        <v>12702</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="C50">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D50">
-        <v>675159</v>
+        <v>943316</v>
       </c>
       <c r="E50" s="2">
-        <v>43826.706493055557</v>
+        <v>43927.70103009259</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>4653631</v>
+        <v>6180522</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="J50">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="K50" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="L50">
-        <v>1.8440349221509999E-3</v>
+        <v>1.506338140102E-3</v>
       </c>
       <c r="M50" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="N50">
         <v>27062</v>
@@ -3318,51 +3292,51 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C51">
-        <v>1144</v>
+        <v>1187</v>
       </c>
       <c r="D51">
-        <v>675159</v>
+        <v>836861</v>
       </c>
       <c r="E51" s="2">
-        <v>43826.706493055557</v>
+        <v>43884.547280092593</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>4653630</v>
+        <v>5592566</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="J51">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="K51" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L51">
-        <v>1.8440349221509999E-3</v>
+        <v>2.4314530882990001E-3</v>
       </c>
       <c r="M51" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="N51">
-        <v>27062</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -3371,262 +3345,262 @@
         <v>1141</v>
       </c>
       <c r="D52">
-        <v>110483</v>
+        <v>681478</v>
       </c>
       <c r="E52" s="2">
-        <v>43470.434849537036</v>
+        <v>43829.590729166666</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>937512</v>
+        <v>4692347</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="J52">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="K52" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="L52">
-        <v>8.5541840023500002E-4</v>
+        <v>1.6844545672710001E-3</v>
       </c>
       <c r="M52" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="N52">
-        <v>7783</v>
+        <v>30425</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C53">
-        <v>1187</v>
+        <v>1141</v>
       </c>
       <c r="D53">
-        <v>216491</v>
+        <v>1020826</v>
       </c>
       <c r="E53" s="2">
-        <v>43564.584479166668</v>
+        <v>43984.923055555555</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1661049</v>
+        <v>6417026</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="J53">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K53" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="L53">
-        <v>1.1037527593810001E-3</v>
+        <v>1.006322619087E-3</v>
       </c>
       <c r="M53" t="s">
-        <v>49</v>
+        <v>221</v>
       </c>
       <c r="N53">
-        <v>12702</v>
+        <v>39852</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="D54">
-        <v>943316</v>
+        <v>298337</v>
       </c>
       <c r="E54" s="2">
-        <v>43927.70103009259</v>
+        <v>43627.649826388886</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>6180522</v>
+        <v>2242548</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="J54">
-        <v>242</v>
+        <v>506</v>
       </c>
       <c r="K54" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="L54">
-        <v>1.506338140102E-3</v>
+        <v>7.0061922375499997E-4</v>
       </c>
       <c r="M54" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="N54">
-        <v>27062</v>
+        <v>17033</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C55">
-        <v>1187</v>
+        <v>1144</v>
       </c>
       <c r="D55">
-        <v>836861</v>
+        <v>566637</v>
       </c>
       <c r="E55" s="2">
-        <v>43884.547280092593</v>
+        <v>43784.669444444444</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>5592566</v>
+        <v>4006490</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="J55">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="K55" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="L55">
-        <v>2.4314530882990001E-3</v>
+        <v>1.93795193207E-3</v>
       </c>
       <c r="M55" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="N55">
-        <v>2597</v>
+        <v>13119</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C56">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="D56">
-        <v>681478</v>
+        <v>437744</v>
       </c>
       <c r="E56" s="2">
-        <v>43829.590729166666</v>
+        <v>43714.692662037036</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>4692347</v>
+        <v>3184048</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J56">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="K56" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="L56">
-        <v>1.6844545672710001E-3</v>
+        <v>1.2977826001390001E-3</v>
       </c>
       <c r="M56" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="N56">
-        <v>30425</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>1141</v>
+        <v>1152</v>
       </c>
       <c r="D57">
-        <v>1020826</v>
+        <v>443969</v>
       </c>
       <c r="E57" s="2">
-        <v>43984.923055555555</v>
+        <v>43718.542094907411</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>6417026</v>
+        <v>3222558</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="J57">
-        <v>248</v>
+        <v>404</v>
       </c>
       <c r="K57" t="s">
-        <v>228</v>
+        <v>82</v>
       </c>
       <c r="L57">
-        <v>1.006322619087E-3</v>
+        <v>1.2165825339869999E-3</v>
       </c>
       <c r="M57" t="s">
-        <v>229</v>
+        <v>83</v>
       </c>
       <c r="N57">
-        <v>39852</v>
+        <v>16305</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
@@ -3635,782 +3609,782 @@
         <v>1137</v>
       </c>
       <c r="D58">
-        <v>298337</v>
+        <v>62600</v>
       </c>
       <c r="E58" s="2">
-        <v>43627.649826388886</v>
+        <v>43370.62777777778</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>2242548</v>
+        <v>563516</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="J58">
-        <v>506</v>
+        <v>179</v>
       </c>
       <c r="K58" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="L58">
-        <v>7.0061922375499997E-4</v>
+        <v>1.2909446607080001E-3</v>
       </c>
       <c r="M58" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="N58">
-        <v>17033</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C59">
-        <v>1144</v>
+        <v>1170</v>
       </c>
       <c r="D59">
-        <v>566637</v>
+        <v>1012637</v>
       </c>
       <c r="E59" s="2">
-        <v>43784.669444444444</v>
+        <v>43977.619340277779</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>4006490</v>
+        <v>6443432</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="J59">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="K59" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="L59">
-        <v>1.93795193207E-3</v>
+        <v>1.321159096914E-3</v>
       </c>
       <c r="M59" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="N59">
-        <v>13119</v>
+        <v>14343</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C60">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D60">
-        <v>437744</v>
+        <v>675159</v>
       </c>
       <c r="E60" s="2">
-        <v>43714.692662037036</v>
+        <v>43826.706493055557</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>3184048</v>
+        <v>4653634</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="J60">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="K60" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="L60">
-        <v>1.2977826001390001E-3</v>
+        <v>1.8440349221509999E-3</v>
       </c>
       <c r="M60" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="N60">
-        <v>21442</v>
+        <v>27062</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C61">
-        <v>1152</v>
+        <v>1182</v>
       </c>
       <c r="D61">
-        <v>443969</v>
+        <v>528051</v>
       </c>
       <c r="E61" s="2">
-        <v>43718.542094907411</v>
+        <v>43759.620034722226</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>3222558</v>
+        <v>3771204</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="J61">
-        <v>404</v>
+        <v>258</v>
       </c>
       <c r="K61" t="s">
         <v>90</v>
       </c>
       <c r="L61">
-        <v>1.2165825339869999E-3</v>
+        <v>4.3546544831519996E-3</v>
       </c>
       <c r="M61" t="s">
         <v>91</v>
       </c>
       <c r="N61">
-        <v>16305</v>
+        <v>17313</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C62">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="D62">
-        <v>62600</v>
+        <v>1020307</v>
       </c>
       <c r="E62" s="2">
-        <v>43370.62777777778</v>
+        <v>43984.634722222225</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>563516</v>
+        <v>6413967</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J62">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="K62" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="L62">
-        <v>1.2909446607080001E-3</v>
+        <v>3.499079189686E-3</v>
       </c>
       <c r="M62" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="N62">
-        <v>4441</v>
+        <v>39852</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63">
-        <v>1170</v>
+        <v>1144</v>
       </c>
       <c r="D63">
-        <v>1012637</v>
+        <v>813727</v>
       </c>
       <c r="E63" s="2">
-        <v>43977.619340277779</v>
+        <v>43875.723298611112</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>6443432</v>
+        <v>5455718</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="J63">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="K63" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="L63">
-        <v>1.321159096914E-3</v>
+        <v>1.4760638297870001E-3</v>
       </c>
       <c r="M63" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="N63">
-        <v>14343</v>
+        <v>27062</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C64">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="D64">
-        <v>675159</v>
+        <v>410898</v>
       </c>
       <c r="E64" s="2">
-        <v>43826.706493055557</v>
+        <v>43699.745613425926</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>4653634</v>
+        <v>3008375</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J64">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="K64" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="L64">
-        <v>1.8440349221509999E-3</v>
+        <v>4.5707901118500002E-4</v>
       </c>
       <c r="M64" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="N64">
-        <v>27062</v>
+        <v>22301</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C65">
-        <v>1182</v>
+        <v>1141</v>
       </c>
       <c r="D65">
-        <v>528051</v>
+        <v>1019084</v>
       </c>
       <c r="E65" s="2">
-        <v>43759.620034722226</v>
+        <v>43983.53597222222</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>3771204</v>
+        <v>6406550</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J65">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="K65" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="L65">
-        <v>4.3546544831519996E-3</v>
+        <v>5.7196261682200002E-4</v>
       </c>
       <c r="M65" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="N65">
-        <v>17313</v>
+        <v>16567</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C66">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="D66">
-        <v>1020307</v>
+        <v>510141</v>
       </c>
       <c r="E66" s="2">
-        <v>43984.634722222225</v>
+        <v>43749.671805555554</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>6413967</v>
+        <v>3657695</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J66">
-        <v>122</v>
+        <v>314</v>
       </c>
       <c r="K66" t="s">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c r="L66">
-        <v>3.499079189686E-3</v>
+        <v>9.5561477046400003E-4</v>
       </c>
       <c r="M66" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="N66">
-        <v>39852</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="C67">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D67">
-        <v>813727</v>
+        <v>645716</v>
       </c>
       <c r="E67" s="2">
-        <v>43875.723298611112</v>
+        <v>43816.650648148148</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>5455718</v>
+        <v>4474497</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J67">
-        <v>256</v>
+        <v>413</v>
       </c>
       <c r="K67" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="L67">
-        <v>1.4760638297870001E-3</v>
+        <v>1.3781236806249999E-3</v>
       </c>
       <c r="M67" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="N67">
-        <v>27062</v>
+        <v>12898</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C68">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="D68">
-        <v>410898</v>
+        <v>1030628</v>
       </c>
       <c r="E68" s="2">
-        <v>43699.745613425926</v>
+        <v>43993.429386574076</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>3008375</v>
+        <v>6474972</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J68">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="K68" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="L68">
-        <v>4.5707901118500002E-4</v>
+        <v>1.247114595113E-3</v>
       </c>
       <c r="M68" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="N68">
-        <v>22301</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C69">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="D69">
-        <v>1019084</v>
+        <v>762255</v>
       </c>
       <c r="E69" s="2">
-        <v>43983.53597222222</v>
+        <v>43860.466111111113</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>6406550</v>
+        <v>5159371</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J69">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="K69" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="L69">
-        <v>5.7196261682200002E-4</v>
+        <v>8.27886710239E-4</v>
       </c>
       <c r="M69" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="N69">
-        <v>16567</v>
+        <v>14343</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C70">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D70">
-        <v>510141</v>
+        <v>813727</v>
       </c>
       <c r="E70" s="2">
-        <v>43749.671805555554</v>
+        <v>43875.723298611112</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>3657695</v>
+        <v>5455720</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J70">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="K70" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L70">
-        <v>9.5561477046400003E-4</v>
+        <v>1.4760638297870001E-3</v>
       </c>
       <c r="M70" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="N70">
-        <v>21442</v>
+        <v>27062</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C71">
-        <v>1141</v>
+        <v>1158</v>
       </c>
       <c r="D71">
-        <v>645716</v>
+        <v>115843</v>
       </c>
       <c r="E71" s="2">
-        <v>43816.650648148148</v>
+        <v>43480.632719907408</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>4474497</v>
+        <v>977786</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J71">
-        <v>413</v>
+        <v>204</v>
       </c>
       <c r="K71" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="L71">
-        <v>1.3781236806249999E-3</v>
+        <v>1.0008022847309999E-3</v>
       </c>
       <c r="M71" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="N71">
-        <v>12898</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C72">
-        <v>1143</v>
+        <v>1187</v>
       </c>
       <c r="D72">
-        <v>1030628</v>
+        <v>228732</v>
       </c>
       <c r="E72" s="2">
-        <v>43993.429386574076</v>
+        <v>43573.503564814811</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>6474972</v>
+        <v>1745582</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J72">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="K72" t="s">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="L72">
-        <v>1.247114595113E-3</v>
+        <v>3.085498158654E-3</v>
       </c>
       <c r="M72" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="N72">
-        <v>8199</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C73">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="D73">
-        <v>762255</v>
+        <v>943316</v>
       </c>
       <c r="E73" s="2">
-        <v>43860.466111111113</v>
+        <v>43927.70103009259</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>5159371</v>
+        <v>6180520</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J73">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="K73" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="L73">
-        <v>8.27886710239E-4</v>
+        <v>1.506338140102E-3</v>
       </c>
       <c r="M73" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="N73">
-        <v>14343</v>
+        <v>27062</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="C74">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D74">
-        <v>813727</v>
+        <v>181427</v>
       </c>
       <c r="E74" s="2">
-        <v>43875.723298611112</v>
+        <v>43533.67355324074</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>5455720</v>
+        <v>1400990</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J74">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="K74" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="L74">
-        <v>1.4760638297870001E-3</v>
+        <v>1.181300618731E-3</v>
       </c>
       <c r="M74" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="N74">
-        <v>27062</v>
+        <v>11260</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C75">
-        <v>1158</v>
+        <v>1173</v>
       </c>
       <c r="D75">
-        <v>115843</v>
+        <v>127840</v>
       </c>
       <c r="E75" s="2">
-        <v>43480.632719907408</v>
+        <v>43495.416261574072</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>977786</v>
+        <v>1050161</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J75">
-        <v>204</v>
+        <v>602</v>
       </c>
       <c r="K75" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L75">
-        <v>1.0008022847309999E-3</v>
+        <v>3.4043686931199999E-4</v>
       </c>
       <c r="M75" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N75">
         <v>6165</v>
@@ -4418,51 +4392,51 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C76">
-        <v>1187</v>
+        <v>1141</v>
       </c>
       <c r="D76">
-        <v>228732</v>
+        <v>943316</v>
       </c>
       <c r="E76" s="2">
-        <v>43573.503564814811</v>
+        <v>43927.70103009259</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>1745582</v>
+        <v>6180519</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J76">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K76" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="L76">
-        <v>3.085498158654E-3</v>
+        <v>1.506338140102E-3</v>
       </c>
       <c r="M76" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="N76">
-        <v>6687</v>
+        <v>27062</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
@@ -4480,25 +4454,25 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>6180520</v>
+        <v>6180518</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J77">
         <v>242</v>
       </c>
       <c r="K77" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="L77">
         <v>1.506338140102E-3</v>
       </c>
       <c r="M77" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="N77">
         <v>27062</v>
@@ -4506,131 +4480,131 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C78">
-        <v>1141</v>
+        <v>1173</v>
       </c>
       <c r="D78">
-        <v>181427</v>
+        <v>131036</v>
       </c>
       <c r="E78" s="2">
-        <v>43533.67355324074</v>
+        <v>43497.736840277779</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>1400990</v>
+        <v>1071032</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J78">
-        <v>187</v>
+        <v>602</v>
       </c>
       <c r="K78" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L78">
-        <v>1.181300618731E-3</v>
+        <v>6.4446137562400004E-4</v>
       </c>
       <c r="M78" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N78">
-        <v>11260</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C79">
-        <v>1173</v>
+        <v>1146</v>
       </c>
       <c r="D79">
-        <v>127840</v>
+        <v>1023866</v>
       </c>
       <c r="E79" s="2">
-        <v>43495.416261574072</v>
+        <v>43988.434166666666</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1050161</v>
+        <v>6435110</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J79">
-        <v>602</v>
+        <v>141</v>
       </c>
       <c r="K79" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="L79">
-        <v>3.4043686931199999E-4</v>
+        <v>5.4893741400499998E-4</v>
       </c>
       <c r="M79" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="N79">
-        <v>6165</v>
+        <v>17313</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C80">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="D80">
-        <v>943316</v>
+        <v>813727</v>
       </c>
       <c r="E80" s="2">
-        <v>43927.70103009259</v>
+        <v>43875.723298611112</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>6180519</v>
+        <v>5455721</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J80">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="K80" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="L80">
-        <v>1.506338140102E-3</v>
+        <v>1.4760638297870001E-3</v>
       </c>
       <c r="M80" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="N80">
         <v>27062</v>
@@ -4638,43 +4612,43 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C81">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="D81">
-        <v>943316</v>
+        <v>813727</v>
       </c>
       <c r="E81" s="2">
-        <v>43927.70103009259</v>
+        <v>43875.723298611112</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>6180518</v>
+        <v>5455722</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J81">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="K81" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="L81">
-        <v>1.506338140102E-3</v>
+        <v>1.4760638297870001E-3</v>
       </c>
       <c r="M81" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="N81">
         <v>27062</v>
@@ -4682,183 +4656,183 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C82">
-        <v>1173</v>
+        <v>1187</v>
       </c>
       <c r="D82">
-        <v>131036</v>
+        <v>617735</v>
       </c>
       <c r="E82" s="2">
-        <v>43497.736840277779</v>
+        <v>43805.681168981479</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>1071032</v>
+        <v>4308408</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J82">
-        <v>602</v>
+        <v>267</v>
       </c>
       <c r="K82" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="L82">
-        <v>6.4446137562400004E-4</v>
+        <v>1.815507652709E-3</v>
       </c>
       <c r="M82" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="N82">
-        <v>6165</v>
+        <v>19414</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="C83">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="D83">
-        <v>1023866</v>
+        <v>645716</v>
       </c>
       <c r="E83" s="2">
-        <v>43988.434166666666</v>
+        <v>43816.650648148148</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>6435110</v>
+        <v>4474499</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J83">
-        <v>141</v>
+        <v>413</v>
       </c>
       <c r="K83" t="s">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="L83">
-        <v>5.4893741400499998E-4</v>
+        <v>1.3781236806249999E-3</v>
       </c>
       <c r="M83" t="s">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="N83">
-        <v>17313</v>
+        <v>12898</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="C84">
-        <v>1144</v>
+        <v>1400</v>
       </c>
       <c r="D84">
-        <v>813727</v>
+        <v>797450</v>
       </c>
       <c r="E84" s="2">
-        <v>43875.723298611112</v>
+        <v>43871.537719907406</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>5455721</v>
+        <v>5361052</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J84">
-        <v>256</v>
+        <v>689</v>
       </c>
       <c r="K84" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="L84">
-        <v>1.4760638297870001E-3</v>
+        <v>1.0084434217400001E-3</v>
       </c>
       <c r="M84" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="N84">
-        <v>27062</v>
+        <v>16365</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C85">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="D85">
-        <v>813727</v>
+        <v>762255</v>
       </c>
       <c r="E85" s="2">
-        <v>43875.723298611112</v>
+        <v>43860.466111111113</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>5455722</v>
+        <v>5159370</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J85">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="K85" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="L85">
-        <v>1.4760638297870001E-3</v>
+        <v>8.27886710239E-4</v>
       </c>
       <c r="M85" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="N85">
-        <v>27062</v>
+        <v>14343</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s">
         <v>47</v>
@@ -4867,262 +4841,262 @@
         <v>1187</v>
       </c>
       <c r="D86">
-        <v>617735</v>
+        <v>836861</v>
       </c>
       <c r="E86" s="2">
-        <v>43805.681168981479</v>
+        <v>43884.547280092593</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>4308408</v>
+        <v>5592573</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J86">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="K86" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="L86">
-        <v>1.815507652709E-3</v>
+        <v>2.4314530882990001E-3</v>
       </c>
       <c r="M86" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="N86">
-        <v>19414</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C87">
-        <v>1141</v>
+        <v>1182</v>
       </c>
       <c r="D87">
-        <v>645716</v>
+        <v>236846</v>
       </c>
       <c r="E87" s="2">
-        <v>43816.650648148148</v>
+        <v>43579.69672453704</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>4474499</v>
+        <v>1802827</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J87">
-        <v>413</v>
+        <v>274</v>
       </c>
       <c r="K87" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="L87">
-        <v>1.3781236806249999E-3</v>
+        <v>3.7244872622E-5</v>
       </c>
       <c r="M87" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="N87">
-        <v>12898</v>
+        <v>6255</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="C88">
-        <v>1400</v>
+        <v>1141</v>
       </c>
       <c r="D88">
-        <v>797450</v>
+        <v>877892</v>
       </c>
       <c r="E88" s="2">
-        <v>43871.537719907406</v>
+        <v>43898.442719907405</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>5361052</v>
+        <v>5824266</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J88">
-        <v>689</v>
+        <v>412</v>
       </c>
       <c r="K88" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="L88">
-        <v>1.0084434217400001E-3</v>
+        <v>1.781113956216E-3</v>
       </c>
       <c r="M88" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="N88">
-        <v>16365</v>
+        <v>27062</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C89">
-        <v>1147</v>
+        <v>1173</v>
       </c>
       <c r="D89">
-        <v>762255</v>
+        <v>146125</v>
       </c>
       <c r="E89" s="2">
-        <v>43860.466111111113</v>
+        <v>43509.958391203705</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>5159370</v>
+        <v>1170929</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J89">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="K89" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="L89">
-        <v>8.27886710239E-4</v>
+        <v>3.6754454893400001E-4</v>
       </c>
       <c r="M89" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="N89">
-        <v>14343</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C90">
-        <v>1187</v>
+        <v>1141</v>
       </c>
       <c r="D90">
-        <v>836861</v>
+        <v>943316</v>
       </c>
       <c r="E90" s="2">
-        <v>43884.547280092593</v>
+        <v>43927.70103009259</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>5592573</v>
+        <v>6180521</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J90">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="K90" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="L90">
-        <v>2.4314530882990001E-3</v>
+        <v>1.506338140102E-3</v>
       </c>
       <c r="M90" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="N90">
-        <v>2597</v>
+        <v>27062</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C91">
-        <v>1182</v>
+        <v>1137</v>
       </c>
       <c r="D91">
-        <v>236846</v>
+        <v>62600</v>
       </c>
       <c r="E91" s="2">
-        <v>43579.69672453704</v>
+        <v>43370.62777777778</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>1802827</v>
+        <v>563518</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J91">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="K91" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="L91">
-        <v>3.7244872622E-5</v>
+        <v>1.2909446607080001E-3</v>
       </c>
       <c r="M91" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N91">
-        <v>6255</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
@@ -5131,218 +5105,218 @@
         <v>1141</v>
       </c>
       <c r="D92">
-        <v>877892</v>
+        <v>925370</v>
       </c>
       <c r="E92" s="2">
-        <v>43898.442719907405</v>
+        <v>43913.398923611108</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>5824266</v>
+        <v>6086686</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J92">
-        <v>412</v>
+        <v>163</v>
       </c>
       <c r="K92" t="s">
         <v>199</v>
       </c>
       <c r="L92">
-        <v>1.781113956216E-3</v>
+        <v>6.7389740367299999E-4</v>
       </c>
       <c r="M92" t="s">
         <v>200</v>
       </c>
       <c r="N92">
-        <v>27062</v>
+        <v>8541</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C93">
-        <v>1173</v>
+        <v>1141</v>
       </c>
       <c r="D93">
-        <v>146125</v>
+        <v>645716</v>
       </c>
       <c r="E93" s="2">
-        <v>43509.958391203705</v>
+        <v>43816.650648148148</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1170929</v>
+        <v>4474496</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J93">
-        <v>166</v>
+        <v>413</v>
       </c>
       <c r="K93" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="L93">
-        <v>3.6754454893400001E-4</v>
+        <v>1.3781236806249999E-3</v>
       </c>
       <c r="M93" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N93">
-        <v>9157</v>
+        <v>40073</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C94">
-        <v>1141</v>
+        <v>1182</v>
       </c>
       <c r="D94">
-        <v>943316</v>
+        <v>1008499</v>
       </c>
       <c r="E94" s="2">
-        <v>43927.70103009259</v>
+        <v>43972.856712962966</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>6180521</v>
+        <v>6343530</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J94">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="K94" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L94">
-        <v>1.506338140102E-3</v>
+        <v>6.3447769855899997E-4</v>
       </c>
       <c r="M94" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N94">
-        <v>27062</v>
+        <v>31398</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C95">
-        <v>1137</v>
+        <v>1173</v>
       </c>
       <c r="D95">
-        <v>62600</v>
+        <v>217429</v>
       </c>
       <c r="E95" s="2">
-        <v>43370.62777777778</v>
+        <v>43565.466597222221</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>563518</v>
+        <v>1667453</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J95">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="K95" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="L95">
-        <v>1.2909446607080001E-3</v>
+        <v>1.551000805164E-3</v>
       </c>
       <c r="M95" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="N95">
-        <v>4441</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C96">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="D96">
-        <v>925370</v>
+        <v>762255</v>
       </c>
       <c r="E96" s="2">
-        <v>43913.398923611108</v>
+        <v>43860.466111111113</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>6086686</v>
+        <v>5159369</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J96">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="K96" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="L96">
-        <v>6.7389740367299999E-4</v>
+        <v>8.27886710239E-4</v>
       </c>
       <c r="M96" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="N96">
-        <v>8541</v>
+        <v>14343</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
@@ -5351,42 +5325,42 @@
         <v>1141</v>
       </c>
       <c r="D97">
-        <v>645716</v>
+        <v>681478</v>
       </c>
       <c r="E97" s="2">
-        <v>43816.650648148148</v>
+        <v>43829.590729166666</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>4474496</v>
+        <v>4692351</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J97">
-        <v>413</v>
+        <v>212</v>
       </c>
       <c r="K97" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="L97">
-        <v>1.3781236806249999E-3</v>
+        <v>1.6844545672710001E-3</v>
       </c>
       <c r="M97" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="N97">
-        <v>40073</v>
+        <v>30425</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B98" t="s">
         <v>56</v>
@@ -5395,388 +5369,212 @@
         <v>1182</v>
       </c>
       <c r="D98">
-        <v>1008499</v>
+        <v>528107</v>
       </c>
       <c r="E98" s="2">
-        <v>43972.856712962966</v>
+        <v>43759.633414351854</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>6343530</v>
+        <v>3771484</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J98">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="K98" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="L98">
-        <v>6.3447769855899997E-4</v>
+        <v>1.9980569354569998E-3</v>
       </c>
       <c r="M98" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="N98">
-        <v>31398</v>
+        <v>17313</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C99">
-        <v>1173</v>
+        <v>1137</v>
       </c>
       <c r="D99">
-        <v>217429</v>
+        <v>666919</v>
       </c>
       <c r="E99" s="2">
-        <v>43565.466597222221</v>
+        <v>43824.463379629633</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99">
-        <v>1667453</v>
+        <v>4600660</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J99">
-        <v>242</v>
+        <v>724</v>
       </c>
       <c r="K99" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="L99">
-        <v>1.551000805164E-3</v>
+        <v>1.093317421549E-3</v>
       </c>
       <c r="M99" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="N99">
-        <v>9157</v>
+        <v>29795</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B100" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C100">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="D100">
-        <v>762255</v>
+        <v>1022281</v>
       </c>
       <c r="E100" s="2">
-        <v>43860.466111111113</v>
+        <v>43986.869259259256</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>5159369</v>
+        <v>6425758</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J100">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="K100" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="L100">
-        <v>8.27886710239E-4</v>
+        <v>1.4605647517029999E-3</v>
       </c>
       <c r="M100" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="N100">
-        <v>14343</v>
+        <v>39852</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C101">
-        <v>1141</v>
+        <v>1173</v>
       </c>
       <c r="D101">
-        <v>681478</v>
+        <v>146125</v>
       </c>
       <c r="E101" s="2">
-        <v>43829.590729166666</v>
+        <v>43509.958391203705</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>4692351</v>
+        <v>1170934</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J101">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="K101" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="L101">
-        <v>1.6844545672710001E-3</v>
+        <v>3.6754454893400001E-4</v>
       </c>
       <c r="M101" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="N101">
-        <v>30425</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B102" t="s">
         <v>56</v>
       </c>
       <c r="C102">
-        <v>1182</v>
+        <v>1147</v>
       </c>
       <c r="D102">
-        <v>528107</v>
+        <v>858860</v>
       </c>
       <c r="E102" s="2">
-        <v>43759.633414351854</v>
+        <v>43892.668599537035</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>3771484</v>
+        <v>5718964</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J102">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="K102" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="L102">
-        <v>1.9980569354569998E-3</v>
+        <v>3.1984540805269999E-3</v>
       </c>
       <c r="M102" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="N102">
-        <v>17313</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B103" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103">
-        <v>1137</v>
-      </c>
-      <c r="D103">
-        <v>666919</v>
-      </c>
-      <c r="E103" s="2">
-        <v>43824.463379629633</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103">
-        <v>4600660</v>
-      </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103">
-        <v>104</v>
-      </c>
-      <c r="J103">
-        <v>724</v>
-      </c>
-      <c r="K103" t="s">
-        <v>133</v>
-      </c>
-      <c r="L103">
-        <v>1.093317421549E-3</v>
-      </c>
-      <c r="M103" t="s">
-        <v>134</v>
-      </c>
-      <c r="N103">
-        <v>29795</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B104" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104">
-        <v>1141</v>
-      </c>
-      <c r="D104">
-        <v>1022281</v>
-      </c>
-      <c r="E104" s="2">
-        <v>43986.869259259256</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>6425758</v>
-      </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104">
-        <v>104</v>
-      </c>
-      <c r="J104">
-        <v>142</v>
-      </c>
-      <c r="K104" t="s">
-        <v>230</v>
-      </c>
-      <c r="L104">
-        <v>1.4605647517029999E-3</v>
-      </c>
-      <c r="M104" t="s">
-        <v>231</v>
-      </c>
-      <c r="N104">
-        <v>39852</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B105" t="s">
-        <v>30</v>
-      </c>
-      <c r="C105">
-        <v>1173</v>
-      </c>
-      <c r="D105">
-        <v>146125</v>
-      </c>
-      <c r="E105" s="2">
-        <v>43509.958391203705</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105">
-        <v>1170934</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
-        <v>102</v>
-      </c>
-      <c r="J105">
-        <v>134</v>
-      </c>
-      <c r="K105" t="s">
-        <v>37</v>
-      </c>
-      <c r="L105">
-        <v>3.6754454893400001E-4</v>
-      </c>
-      <c r="M105" t="s">
-        <v>38</v>
-      </c>
-      <c r="N105">
-        <v>9157</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B106" t="s">
-        <v>56</v>
-      </c>
-      <c r="C106">
-        <v>1147</v>
-      </c>
-      <c r="D106">
-        <v>858860</v>
-      </c>
-      <c r="E106" s="2">
-        <v>43892.668599537035</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106">
-        <v>5718964</v>
-      </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106">
-        <v>101</v>
-      </c>
-      <c r="J106">
-        <v>277</v>
-      </c>
-      <c r="K106" t="s">
-        <v>197</v>
-      </c>
-      <c r="L106">
-        <v>3.1984540805269999E-3</v>
-      </c>
-      <c r="M106" t="s">
-        <v>198</v>
-      </c>
-      <c r="N106">
         <v>4618</v>
       </c>
     </row>
